--- a/biology/Botanique/Ficus_katendei/Ficus_katendei.xlsx
+++ b/biology/Botanique/Ficus_katendei/Ficus_katendei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficus katendei est une espèce d'arbres épiphytes ou secondairement terrestres de la famille des Moraceae du genre Ficus[2]. Endémique d'Ouganda, l'espèce est considérée comme en danger critique d'extinction par l'Union internationale pour la conservation de la nature qui l'a classée sur la liste des 100 espèces les plus menacées au monde établie en 2012.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficus katendei est une espèce d'arbres épiphytes ou secondairement terrestres de la famille des Moraceae du genre Ficus. Endémique d'Ouganda, l'espèce est considérée comme en danger critique d'extinction par l'Union internationale pour la conservation de la nature qui l'a classée sur la liste des 100 espèces les plus menacées au monde établie en 2012.
 </t>
         </is>
       </c>
